--- a/revised Cost Plans 2016_2017 FSU_FAMU Radar Project.xlsx
+++ b/revised Cost Plans 2016_2017 FSU_FAMU Radar Project.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riuseda\Downloads\SAR-Imager_FSU-FAMU-COE_Northrop-Grumman-master\SAR-Imager_FSU-FAMU-COE_Northrop-Grumman-master\TargetSimulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariomain\Documents\github\SAR-Imager_FSU-FAMU-COE_Northrop-Grumman\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>SMP 2046</t>
   </si>
@@ -129,17 +129,20 @@
   </si>
   <si>
     <t>TI</t>
+  </si>
+  <si>
+    <t>RECEIVED 1/11/17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +161,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -215,6 +225,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -250,7 +261,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -369,6 +386,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -404,6 +438,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:I29"/>
+  <dimension ref="A5:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,14 +648,15 @@
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -629,7 +681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -639,7 +691,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -651,7 +703,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
@@ -675,8 +727,11 @@
       <c r="I10" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J10" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="9" t="s">
         <v>6</v>
@@ -701,8 +756,11 @@
       <c r="I11" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J11" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="9" t="s">
         <v>9</v>
@@ -728,7 +786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="9" t="s">
         <v>9</v>
@@ -754,7 +812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="9" t="s">
         <v>13</v>
@@ -779,11 +837,14 @@
       <c r="I14" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="9"/>
       <c r="C16" s="2"/>
